--- a/Сводный отчёт по модели 3.xlsx
+++ b/Сводный отчёт по модели 3.xlsx
@@ -12,7 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="1 опер" sheetId="1" r:id="rId1"/>
+    <sheet name="Итоговая графика" sheetId="5" r:id="rId1"/>
+    <sheet name="1 опер" sheetId="1" r:id="rId2"/>
+    <sheet name="2 опера" sheetId="2" r:id="rId3"/>
+    <sheet name="3 опера" sheetId="3" r:id="rId4"/>
+    <sheet name="4 опера" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>Число успешно завершённых заявок</t>
   </si>
@@ -121,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -129,7 +133,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -145,6 +164,1908 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Выполнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> заявок</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41246125133234751"/>
+          <c:y val="1.9753086419753086E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13477635520279066"/>
+          <c:y val="9.9061728395061749E-2"/>
+          <c:w val="0.67562492890635861"/>
+          <c:h val="0.77121544992061175"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Оператор</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000002F-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1 опер'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1 опер'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0632911392405063E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11075949367088607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17563291139240506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21518987341772153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21835443037974683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2199367088607595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2199367088607595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2199367088607595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2199367088607595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2199367088607595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2199367088607595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Оператора</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000028-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2 опера'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2 опера'!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.6962025316455694E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12183544303797468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17563291139240506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22784810126582278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29113924050632911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34810126582278483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39082278481012656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42721518987341772</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43037974683544306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43037974683544306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42879746835443039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42879746835443039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42879746835443039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42879746835443039</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42879746835443039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Оператора</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 опера'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 опера'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.8544303797468354E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11708860759493671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24050632911392406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35601265822784811</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47151898734177217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58069620253164556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65822784810126578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.685126582278481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68354430379746833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.685126582278481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.685126582278481</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.685126582278481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.685126582278481</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.685126582278481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Оператора</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 опера'!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 опера'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.6962025316455694E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12183544303797468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24208860759493672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.495253164556962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58544303797468356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71202531645569622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80854430379746833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88132911392405067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.944620253164557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96202531645569622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96360759493670889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96360759493670889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96360759493670889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E8B-40FA-8E4F-CBC0F397C27F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="b"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1943627183"/>
+        <c:axId val="1943628431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1943627183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> тех. администраторов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1943628431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1943628431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Выполненных заявок, %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1943627183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,296 +2331,1589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="1" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>632</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="8">
+        <v>632</v>
+      </c>
+      <c r="C2" s="6">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>153</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <f>B2-C2-D2</f>
         <v>447</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <f>(C2/B2)</f>
         <v>5.0632911392405063E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <f>(D2+E2)/B2</f>
         <v>0.94936708860759489</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>632</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="8">
+        <v>632</v>
+      </c>
+      <c r="C3" s="6">
         <v>70</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>160</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E11" si="0">B3-C3-D3</f>
         <v>402</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F11" si="1">(C3/B3)</f>
         <v>0.11075949367088607</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:G11" si="2">(D3+E3)/B3</f>
         <v>0.88924050632911389</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>632</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="8">
+        <v>632</v>
+      </c>
+      <c r="C4" s="6">
         <v>111</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>154</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <f t="shared" si="1"/>
         <v>0.17563291139240506</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <f t="shared" si="2"/>
         <v>0.82436708860759489</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>632</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="8">
+        <v>632</v>
+      </c>
+      <c r="C5" s="6">
         <v>136</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>136</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>0.21518987341772153</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="7">
         <f t="shared" si="2"/>
         <v>0.78481012658227844</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>632</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="8">
+        <v>632</v>
+      </c>
+      <c r="C6" s="6">
         <v>138</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>136</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0.21835443037974683</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>0.78164556962025311</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>632</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="8">
+        <v>632</v>
+      </c>
+      <c r="C7" s="6">
         <v>139</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>136</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>0.2199367088607595</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>0.78006329113924056</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>632</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="8">
+        <v>632</v>
+      </c>
+      <c r="C8" s="6">
         <v>139</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>136</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>0.2199367088607595</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>0.78006329113924056</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>632</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="8">
+        <v>632</v>
+      </c>
+      <c r="C9" s="6">
         <v>139</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>136</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>0.2199367088607595</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>0.78006329113924056</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>632</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>632</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="B10" s="8">
+        <v>632</v>
+      </c>
+      <c r="C10" s="6">
+        <v>139</v>
+      </c>
+      <c r="D10" s="6">
+        <v>136</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.2199367088607595</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.78006329113924056</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>632</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>632</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="B11" s="8">
+        <v>632</v>
+      </c>
+      <c r="C11" s="6">
+        <v>139</v>
+      </c>
+      <c r="D11" s="6">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.2199367088607595</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.78006329113924056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8">
+        <v>632</v>
+      </c>
+      <c r="C12" s="6">
+        <v>139</v>
+      </c>
+      <c r="D12" s="6">
+        <v>136</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12" si="3">B12-C12-D12</f>
+        <v>357</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12" si="4">(C12/B12)</f>
+        <v>0.2199367088607595</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" ref="G12" si="5">(D12+E12)/B12</f>
+        <v>0.78006329113924056</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>632</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>283</v>
+      </c>
+      <c r="E2">
+        <f>B2-C2-D2</f>
+        <v>313</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(C2/B2)</f>
+        <v>5.6962025316455694E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(D2+E2)/B2</f>
+        <v>0.94303797468354433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>632</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>292</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">B3-C3-D3</f>
+        <v>263</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">(C3/B3)</f>
+        <v>0.12183544303797468</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="2">(D3+E3)/B3</f>
+        <v>0.87816455696202533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>632</v>
+      </c>
+      <c r="C4">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>305</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17563291139240506</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82436708860759489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>632</v>
+      </c>
+      <c r="C5">
+        <v>144</v>
+      </c>
+      <c r="D5">
+        <v>312</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77215189873417722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>632</v>
+      </c>
+      <c r="C6">
+        <v>184</v>
+      </c>
+      <c r="D6">
+        <v>296</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.29113924050632911</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.70886075949367089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>632</v>
+      </c>
+      <c r="C7">
+        <v>220</v>
+      </c>
+      <c r="D7">
+        <v>298</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.34810126582278483</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65189873417721522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>632</v>
+      </c>
+      <c r="C8">
+        <v>247</v>
+      </c>
+      <c r="D8">
+        <v>273</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39082278481012656</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60917721518987344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>632</v>
+      </c>
+      <c r="C9">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <v>262</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(C9/B9)</f>
+        <v>0.42721518987341772</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57278481012658233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>632</v>
+      </c>
+      <c r="C10">
+        <v>272</v>
+      </c>
+      <c r="D10">
+        <v>262</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F15" si="3">(C10/B10)</f>
+        <v>0.43037974683544306</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.569620253164557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>632</v>
+      </c>
+      <c r="C11">
+        <v>272</v>
+      </c>
+      <c r="D11">
+        <v>262</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.43037974683544306</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.569620253164557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>632</v>
+      </c>
+      <c r="C12">
+        <v>271</v>
+      </c>
+      <c r="D12">
+        <v>262</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42879746835443039</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57120253164556967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>632</v>
+      </c>
+      <c r="C13">
+        <v>271</v>
+      </c>
+      <c r="D13">
+        <v>262</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42879746835443039</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57120253164556967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>632</v>
+      </c>
+      <c r="C14">
+        <v>271</v>
+      </c>
+      <c r="D14">
+        <v>262</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42879746835443039</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57120253164556967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>632</v>
+      </c>
+      <c r="C15">
+        <v>271</v>
+      </c>
+      <c r="D15">
+        <v>262</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.42879746835443039</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57120253164556967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>632</v>
+      </c>
+      <c r="C16">
+        <v>271</v>
+      </c>
+      <c r="D16">
+        <v>262</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="4">B16-C16-D16</f>
+        <v>99</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16" si="5">(C16/B16)</f>
+        <v>0.42879746835443039</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ref="G16" si="6">(D16+E16)/B16</f>
+        <v>0.57120253164556967</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="A2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>632</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <f>B2-C2-D2</f>
+        <v>405</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(C2/B2)</f>
+        <v>5.8544303797468354E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(D2+E2)/B2</f>
+        <v>0.94145569620253167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>632</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>203</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">B3-C3-D3</f>
+        <v>355</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">(C3/B3)</f>
+        <v>0.11708860759493671</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="2">(D3+E3)/B3</f>
+        <v>0.88291139240506333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>632</v>
+      </c>
+      <c r="C4">
+        <v>152</v>
+      </c>
+      <c r="D4">
+        <v>226</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24050632911392406</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.759493670886076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>632</v>
+      </c>
+      <c r="C5">
+        <v>225</v>
+      </c>
+      <c r="D5">
+        <v>239</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35601265822784811</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64398734177215189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>632</v>
+      </c>
+      <c r="C6">
+        <v>298</v>
+      </c>
+      <c r="D6">
+        <v>223</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47151898734177217</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.52848101265822789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>632</v>
+      </c>
+      <c r="C7">
+        <v>367</v>
+      </c>
+      <c r="D7">
+        <v>208</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58069620253164556</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.41930379746835444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>632</v>
+      </c>
+      <c r="C8">
+        <v>416</v>
+      </c>
+      <c r="D8">
+        <v>167</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.34177215189873417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>632</v>
+      </c>
+      <c r="C9">
+        <v>433</v>
+      </c>
+      <c r="D9">
+        <v>167</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(C9/B9)</f>
+        <v>0.685126582278481</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.314873417721519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>632</v>
+      </c>
+      <c r="C10">
+        <v>432</v>
+      </c>
+      <c r="D10">
+        <v>167</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F15" si="3">(C10/B10)</f>
+        <v>0.68354430379746833</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.31645569620253167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>632</v>
+      </c>
+      <c r="C11">
+        <v>433</v>
+      </c>
+      <c r="D11">
+        <v>167</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.685126582278481</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.314873417721519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>632</v>
+      </c>
+      <c r="C12">
+        <v>433</v>
+      </c>
+      <c r="D12">
+        <v>167</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.685126582278481</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.314873417721519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>632</v>
+      </c>
+      <c r="C13">
+        <v>433</v>
+      </c>
+      <c r="D13">
+        <v>167</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.685126582278481</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.314873417721519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>632</v>
+      </c>
+      <c r="C14">
+        <v>433</v>
+      </c>
+      <c r="D14">
+        <v>167</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.685126582278481</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.314873417721519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>632</v>
+      </c>
+      <c r="C15">
+        <v>433</v>
+      </c>
+      <c r="D15">
+        <v>167</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.685126582278481</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.314873417721519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="A2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>632</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <f>B2-C2-D2</f>
+        <v>573</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(C2/B2)</f>
+        <v>5.6962025316455694E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <f>(D2+E2)/B2</f>
+        <v>0.94303797468354433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>632</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">B3-C3-D3</f>
+        <v>514</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F8" si="1">(C3/B3)</f>
+        <v>0.12183544303797468</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="2">(D3+E3)/B3</f>
+        <v>0.87816455696202533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>632</v>
+      </c>
+      <c r="C4">
+        <v>153</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24208860759493672</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75791139240506333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>632</v>
+      </c>
+      <c r="C5">
+        <v>237</v>
+      </c>
+      <c r="D5">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>632</v>
+      </c>
+      <c r="C6">
+        <v>313</v>
+      </c>
+      <c r="D6">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.495253164556962</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.504746835443038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>632</v>
+      </c>
+      <c r="C7">
+        <v>370</v>
+      </c>
+      <c r="D7">
+        <v>91</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.58544303797468356</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.41455696202531644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>632</v>
+      </c>
+      <c r="C8">
+        <v>450</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71202531645569622</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.28797468354430378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>632</v>
+      </c>
+      <c r="C9">
+        <v>511</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F9" s="3">
+        <f>(C9/B9)</f>
+        <v>0.80854430379746833</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19145569620253164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>632</v>
+      </c>
+      <c r="C10">
+        <v>557</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F15" si="3">(C10/B10)</f>
+        <v>0.88132911392405067</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11867088607594936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>632</v>
+      </c>
+      <c r="C11">
+        <v>597</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.944620253164557</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5379746835443035E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>632</v>
+      </c>
+      <c r="C12">
+        <v>608</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7974683544303799E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>632</v>
+      </c>
+      <c r="C13">
+        <v>609</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96360759493670889</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6392405063291139E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>632</v>
+      </c>
+      <c r="C14">
+        <v>609</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96360759493670889</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6392405063291139E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>632</v>
+      </c>
+      <c r="C15">
+        <v>609</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96360759493670889</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6392405063291139E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>